--- a/biology/Botanique/Tillandsia_festucoides/Tillandsia_festucoides.xlsx
+++ b/biology/Botanique/Tillandsia_festucoides/Tillandsia_festucoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia festucoides Brongn. ex Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète festucoides signifie « ressemblant à la fétuque (genre Festuca) » et se rapporte à l'aspect du feuillage.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia festucoides Brongn. ex Mez in C.DC., Monogr. Phan. 9: 678, n° 19 (1896)
-Diagnose originale[1]  :
+Diagnose originale  :
 « foliis permultis dense fasciculatis, angustissime linearibus, utrinque lepidibus peradpressis praeditis ; inflorescentia dense bipinnatim panniculata[sic], folia nunc paullo nunc manifestius superante, digitatim e spicis (fructiferis praesertim) +/- decurvis, subflabellatis composita; bracteolis florigeris imbricatis, dorso laevibus glabris v. parce lepidotis, acutis, sepala superantibus; floribus erectis ; sepalis antico fere libero, posticis binis ad 6-8 mm. connatis, acutis ; petalis lilacinis, tubulose erectis, quam stamina brevioribus ; stylo antheras superante. »
-Type : Mez[1] cite de nombreux spécimens sans se référer à l'un en particulier.
+Type : Mez cite de nombreux spécimens sans se référer à l'un en particulier.
 </t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia caricifolia E.Morren ex Mez[2],[3]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -576,10 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia caricifolia E.Morren ex Mez,</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +629,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1],[2],[3].
-Habitat : zones forestières[3].
-Altitude : 60-600 m[1] ; 25-1000 m[3].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -634,22 +657,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du nord :
- États-Unis
-Floride[1]
-Antilles :
- Cuba[1],[3]
-Hispaniola[1],[3]
- Jamaïque[3]
- Porto Rico[1],[3]
-Amérique centrale
- Mexique[3]
-Sud du Mexique[2]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte.
+Habitat : zones forestières.
+Altitude : 60-600 m ; 25-1000 m.</t>
         </is>
       </c>
     </row>
@@ -674,12 +691,56 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du nord :
+ États-Unis
+Floride
+Antilles :
+ Cuba,
+Hispaniola,
+ Jamaïque
+ Porto Rico,
+Amérique centrale
+ Mexique
+Sud du Mexique</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_festucoides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_festucoides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia festucoides est une plante de culture facile[2],[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia festucoides est une plante de culture facile,.
 </t>
         </is>
       </c>
